--- a/biology/Zoologie/Dircenna_dero/Dircenna_dero.xlsx
+++ b/biology/Zoologie/Dircenna_dero/Dircenna_dero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna dero est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Dircenna.
 </t>
@@ -511,53 +523,56 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna dero a été décrit par Jacob Hübner en 1823[1].
-Sous-espèces
-Dircenna dero dero
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna dero a été décrit par Jacob Hübner en 1823.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dircenna dero dero
 Dircenna dero caliginosa Zikán, 1941; présent au Brésil.
 Dircenna dero celtina Burmeister, 1878
 Dircenna dero euteles Erschoff, 1875; présent au Brésil, au Surinam, en Guyana et en Guyane
-Dircenna dero euchytma (C. &amp; R. Felder, [1865]); présent au Venezuela.
+Dircenna dero euchytma (C. &amp; R. Felder, ); présent au Venezuela.
 Dircenna dero rhoeo C. &amp; R. Felder, 1860; présent au Brésil.
 Dircenna dero ssp; présent au Mexique.
 Dircenna dero ssp; présent au Pérou.
-Dircenna dero ssp; présent au Brésil[1].
-Nom vernaculaire
-Dircenna dero se nomme Dero Clearwing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dircenna_dero</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dircenna_dero</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna dero est un papillon d'une envergure de 63 mm à  68 mm, à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave[3]. Les ailes sont transparentes avec des veines marron et une bordure marron, marquée de points blancs sur le revers.
-</t>
+Dircenna dero ssp; présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -582,13 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante hôte
-La plante hôte de la chenille de  Dircenna dero euchytma est Solanum ochraceo-ferrugineum[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna dero se nomme Dero Clearwing en anglais.
 </t>
         </is>
       </c>
@@ -614,14 +634,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna dero est un papillon d'une envergure de 63 mm à  68 mm, à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont transparentes avec des veines marron et une bordure marron, marquée de points blancs sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille de  Dircenna dero euchytma est Solanum ochraceo-ferrugineum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna dero est présent au Mexique, au Nicaragua, au Honduras, au Costa Rica, à Panama, au Venezuela, en Colombie en Équateur, au Brésil, au Pérou, en Guyana et en Guyane[1],[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna dero est présent au Mexique, au Nicaragua, au Honduras, au Costa Rica, à Panama, au Venezuela, en Colombie en Équateur, au Brésil, au Pérou, en Guyana et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_dero</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Dircenna dero, sur Wikimedia CommonsDircenna dero, sur Wikispecies
 </t>
